--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2900123.881636442</v>
+        <v>2897578.695563155</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>268.3528239515853</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>135.1787052649172</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.6210949690525</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>367.1215549865456</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>136.9524318238182</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.26682930112241</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>374.6615162716401</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>326.1230146347445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.63890193362665</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.7084378797731</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>46.29306638367343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>158.4589496224476</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>41.01175877060099</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1272.344242153658</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>903.3817252132462</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V4" t="n">
-        <v>591.5848374741946</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W4" t="n">
-        <v>591.5848374741946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>591.5848374741946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>1176.876864157141</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1176.876864157141</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1176.876864157141</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2327.607124141857</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.607124141857</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2327.607124141857</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="W5" t="n">
-        <v>2327.607124141857</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="X5" t="n">
-        <v>1954.141365880777</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.141365880777</v>
+        <v>1563.476704221263</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,10 +4653,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>1115.823272435769</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>1115.823272435769</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>757.5575738290181</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>757.5575738290181</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>750.6120730798146</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>968.025576351423</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1599.743387334735</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1794.077600226717</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2341.238804993794</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243321</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285933</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2228.657526031084</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2228.657526031084</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1875.88887076097</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.73190451848</v>
+        <v>1502.42311249989</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.592572542669</v>
+        <v>1502.42311249989</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1067.230262346898</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>477.5636529541582</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,16 +5051,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5124,19 +5124,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000582</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>642.8692823226941</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>473.9330993947872</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>323.8164599824514</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1817.401535437329</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1562.717047231442</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1273.299877194481</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1045.310326296464</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>824.5177471529338</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,10 +6783,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,19 +7075,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
         <v>484.8112968429803</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349511</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1550.665004989558</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.574735228845</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2526.197884723913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,16 +7728,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>184.4918451070945</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>378.0407240669645</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.2829540756229</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333545</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442556</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442555</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682737</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>5677.536566682737</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682767</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>5677.536566682752</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682747</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682752</v>
       </c>
-      <c r="M4" t="n">
-        <v>5677.536566682775</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682766</v>
-      </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682778</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-205389.9126029538</v>
+        <v>-205389.9126029539</v>
       </c>
       <c r="C6" t="n">
-        <v>384577.9666115906</v>
+        <v>384577.9666115907</v>
       </c>
       <c r="D6" t="n">
-        <v>228774.1605177962</v>
+        <v>228774.1605177964</v>
       </c>
       <c r="E6" t="n">
-        <v>-211956.8130271407</v>
+        <v>-211991.5509525769</v>
       </c>
       <c r="F6" t="n">
-        <v>559095.8783536657</v>
+        <v>559061.1404282294</v>
       </c>
       <c r="G6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="H6" t="n">
-        <v>559095.8783536655</v>
+        <v>559061.1404282297</v>
       </c>
       <c r="I6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="J6" t="n">
-        <v>382672.6591610722</v>
+        <v>382637.9212356363</v>
       </c>
       <c r="K6" t="n">
-        <v>559095.8783536652</v>
+        <v>559061.1404282295</v>
       </c>
       <c r="L6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="M6" t="n">
-        <v>434887.3676456068</v>
+        <v>434852.6297201709</v>
       </c>
       <c r="N6" t="n">
-        <v>559095.878353665</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="O6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="P6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282296</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>86.33021766909769</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>116.9589380589108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753847</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>14.80881508571622</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>79.49588853383958</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>126.3983626790354</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>38.25538767429668</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27904,22 +27904,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>43.60808604372448</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>273.6217527244704</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,13 +33503,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>225.4828684302377</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,13 +34214,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.1165249313368</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,19 +34448,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,13 +35021,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>325.2278611083603</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35191,7 +35191,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,10 +35258,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>578.7040994736965</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37321,13 +37321,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.13475084531527</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
